--- a/500all/speech_level/speeches_CHRG-114hhrg20546.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20546.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. The Subcommittee on Oversight and Investigations will come to order.    The subcommittee is meeting today to hear testimony on the Administration's response to findings of unethical and criminal conduct at the Department of the Interior.    Under Committee Rule 4(f), any oral opening statements at the hearings are limited to the Chairman and the Ranking Minority Member. Therefore, I ask unanimous consent that all other Members' opening statements made be made part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today.    Hearing no objection, so ordered.    We were notified that Ranking Member Dingell would not be able to be here. You may be aware we had an interesting evening and finished votes, I think, sometime after 3:00 a.m.    I will also say that it is a pleasure to work with Congresswoman Debbie Dingell. She is, I have found, one of the more honorable, decent people of integrity like her husband, and it is a pleasure to work with her. I think a great deal of her and I am proud to consider her a friend.    Now, I recognize myself for 5 minutes for an opening statement.</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kendall</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kendall. Thank you, Mr. Chairman.    Good morning, members of the committee. Thank you for the opportunity to testify today regarding the work of the Office of the Inspector General.    This hearing highlights the importance of bringing into the public view the role of the OIG as an independent, objective body to investigate matters that ultimately violate the public trust.    I must emphasize the dedication and hard work of OIG staff and give credit to those who produce the results that are the subject of today's hearing.    These recent hearings have also reinforced our focus on analyzing patterns of misconduct, examples of retaliation or intimidation, and systemic failures in management and internal oversight of critical processes within the Department, such as human resources, and contract and grant management.    With fewer than 80 investigators, we work with constrained resources to address the ever-increasing complaints and allegations we receive throughout the year from multiple sources. With limited time and resources, we tend to move from case to case without considering cross-cutting impacts or patterns that our investigations uncover.    Recently, however, we have begun to look for investigative trends that may eliminate more systemic issues within the Department and its bureaus. The OIG has established a reputation for fair and thorough investigative and audit work. While we produce a significant volume of both investigative and audit work, in light of our work size we are not always able to transmit and make public our work products as quickly as I would like.    Our effort at transparency, something that I believe is unparalleled in the OIG community, has its own challenges. In preparing public versions of these investigative and audit results, we must address grand jury secrecy rules, privacy issues, confidential business and proprietary information protections, and protection of confidential sources. This effort can be quite time consuming, but I believe that the benefit of the resulting transparency is well worth the effort.    By reducing the time we provide to the Department for consideration from 90 to no more than 30 days before publishing investigative reports or summaries on our Web site, we provide all of our stakeholders with clear expectations about the public availability of our reports.    Much of our investigative work includes working with Assistant U.S. Attorneys (AUSAs) and other officials in the Department of Justice. We have strong working relationships with many U.S. Attorney's Offices, which has resulted in the prosecution of cases throughout the country.    A couple of examples of these effective working relationships with DOJ are our considerable involvement with the Deepwater Horizon Task Force, both criminal and civil, which were led by DOJ and resulted in record-setting fines and penalties.    We also had great success in the Guardians Task Force, which was led by the U.S. Attorney's Office for the District of Montana, to address public corruption involving tribal leaders. This model has become a standard for task forces in Indian Country.    We consult with DOJ on all allegations that involve potential criminal violations. A considerable number of these cases do not get prosecuted for any number of appropriate reasons.    Other times, a matter may be accepted for consideration for prosecution, but gets delayed due to higher priority cases or other resource limitations. The process of prosecutorial consideration is very deliberate, very detailed, and at times, completely out of our hands.    I reiterate my thanks to the subcommittee for holding this hearing today, for giving these issues the attention they deserve, and for recognizing the need for transparency and accountability in this important area.    This concludes my prepared testimony, and I am happy to answer any questions committee may have.</t>
   </si>
   <si>
@@ -175,18 +169,12 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hice. Thank you very much, Mr. Chairman. I appreciate you calling this hearing.    This is now actually the third hearing on this issue that I have participated in, and after the two previous hearings, quite frankly, I have been shocked at the culture of corruption and misconduct that has been allowed to persist at the National Park Service.    In fact, last Wednesday, Director Jarvis was at the Oversight and Government Reform Committee to answer some questions pertaining to allegations of sexual harassment, unethical behavior, misconduct, and on and on and on; and, unfortunately, for the members of that committee and for the citizens of the United States of America, Director Jarvis was not able to answer the questions, not even the simplest questions.    And, Mr. Chairman, that is why this past Thursday, I actually sent a letter to President Obama, where I asked him to have Director Jarvis resign from his position, and I fully stand by that letter today.    In fact, I would ask unanimous consent to include a copy of the letter in the record.</t>
   </si>
   <si>
     <t>412674</t>
   </si>
   <si>
-    <t>Darin LaHood</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaHood [presiding]. Without objection.</t>
   </si>
   <si>
@@ -235,9 +223,6 @@
     <t>400029</t>
   </si>
   <si>
-    <t>Rob Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you.    I apologize for coming in late. I will make up for it by leaving right after I am done.    Ms. Kendall, I appreciate you being here. You publicly, I believe, released a report yesterday.</t>
   </si>
   <si>
@@ -259,9 +244,6 @@
     <t xml:space="preserve">    Mr. Bishop. OK. Three, four, five, ten?</t>
   </si>
   <si>
-    <t>Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Thompson. I would say two or three, perhaps.</t>
   </si>
   <si>
@@ -334,9 +316,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman.    I also would like to extend my thanks to the witnesses for being here this morning.    Ms. Kendall, as I listen to the testimony and the questions, it reminds me how important it is to have transparency in our government and how important your job is as an Inspector General in shining light on some of these issues. It appears that you have quite a bit of job security with the way some of these agencies have been operating.    My specific questions have to do with the OIG's investigation of the Henderson, Nevada land sale. That is the OIG's investigation into Bob Abbey, the former Director of the Bureau of Land Management.    Who requested that the OIG investigate Mr. Abbey?</t>
   </si>
   <si>
@@ -433,9 +412,6 @@
     <t>412662</t>
   </si>
   <si>
-    <t>Alexander X. Mooney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mooney. Thank you, Mr. Chairman.    Ms. Kendall, I have had a lot of dealings with the Department of the Interior in West Virginia. We are dealing with coal mining and other issues. I work with them and deal with them on a lot of issues. I have a few questions for you.    In your semi-annual report to Congress from March, you mentioned that, of the 29 cases you referred to the Department of Justice for prosecution, 17 were declined. Is that correct?</t>
   </si>
   <si>
@@ -518,9 +494,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you.    I will yield myself 5 minutes at this time.    I want to thank the witnesses for being here today and for your testimony.    Mr. Guertin, I know in your opening statement you talked about the facts and circumstances involving Mr. Barton, which are, I think by your own adjectives, very, very troubling.    And Mr. Barton, as I understand it, his title was Chief of Administrative Information and Management; and clearly he found a creative way to enrich himself illegally, but I guess the part that is really revealing is that he did it out in the open.    As I understand it, Mr. Barton was stationed in Washington, DC; is that correct?</t>
-  </si>
-  <si>
-    <t>Guertin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Guertin. Yes, sir.</t>
@@ -1168,11 +1141,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1194,11 +1165,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1220,11 +1189,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1246,11 +1213,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1270,13 +1235,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1298,11 +1261,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1324,11 +1285,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1348,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1376,11 +1333,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1400,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1428,11 +1381,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1452,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1480,11 +1429,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1504,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1532,11 +1477,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1556,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1584,11 +1525,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1608,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1636,11 +1573,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1660,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1688,11 +1621,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1712,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1740,11 +1669,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1764,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1792,11 +1717,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1816,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1844,11 +1765,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1868,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1896,11 +1813,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1920,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1948,11 +1861,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1972,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2000,11 +1909,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2024,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2052,11 +1957,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2076,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2104,11 +2005,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2128,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2154,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2180,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2206,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2232,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2258,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2284,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2310,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2336,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2362,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2388,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2414,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2440,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2466,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2492,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G53" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2518,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2544,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2570,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2596,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2622,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2648,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
-      </c>
-      <c r="G59" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2674,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2700,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
         <v>73</v>
-      </c>
-      <c r="H61" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2726,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2752,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2778,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2804,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
-      </c>
-      <c r="G65" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2830,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2856,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2882,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2908,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2934,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2960,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2986,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3012,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>72</v>
-      </c>
-      <c r="G73" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3038,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3064,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>72</v>
-      </c>
-      <c r="G75" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3090,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3116,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
-      </c>
-      <c r="G77" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3142,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3168,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>72</v>
-      </c>
-      <c r="G79" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3194,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3220,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>72</v>
-      </c>
-      <c r="G81" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3246,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3272,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>72</v>
-      </c>
-      <c r="G83" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3298,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3324,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>72</v>
-      </c>
-      <c r="G85" t="s">
-        <v>73</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3350,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>55</v>
-      </c>
-      <c r="G86" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3376,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3402,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3428,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3454,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3480,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3506,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3532,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" t="s">
+        <v>99</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
         <v>106</v>
-      </c>
-      <c r="H93" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3558,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3584,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3610,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3636,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
-      </c>
-      <c r="G97" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3662,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3688,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
-      </c>
-      <c r="G99" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3714,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3740,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
-      </c>
-      <c r="G101" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3766,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3792,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>105</v>
-      </c>
-      <c r="G103" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3818,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3844,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>105</v>
-      </c>
-      <c r="G105" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3870,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3896,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>105</v>
-      </c>
-      <c r="G107" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3922,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3948,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>105</v>
-      </c>
-      <c r="G109" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3974,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4000,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>105</v>
-      </c>
-      <c r="G111" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4026,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4052,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>105</v>
-      </c>
-      <c r="G113" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4078,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4104,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>105</v>
-      </c>
-      <c r="G115" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4130,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>55</v>
-      </c>
-      <c r="G116" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4156,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>105</v>
-      </c>
-      <c r="G117" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4182,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>55</v>
-      </c>
-      <c r="G118" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4208,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4234,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4260,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
-      </c>
-      <c r="G121" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4286,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4312,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4338,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4364,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
+        <v>131</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
         <v>138</v>
-      </c>
-      <c r="G125" t="s">
-        <v>139</v>
-      </c>
-      <c r="H125" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4390,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4416,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
-      </c>
-      <c r="G127" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4442,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4468,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>138</v>
-      </c>
-      <c r="G129" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4494,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4520,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>138</v>
-      </c>
-      <c r="G131" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4546,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4572,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>138</v>
-      </c>
-      <c r="G133" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4598,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4624,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>138</v>
-      </c>
-      <c r="G135" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4650,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4676,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>138</v>
-      </c>
-      <c r="G137" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4702,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4728,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>138</v>
-      </c>
-      <c r="G139" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4754,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4780,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>138</v>
-      </c>
-      <c r="G141" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4806,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4832,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>138</v>
-      </c>
-      <c r="G143" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4858,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4884,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>138</v>
-      </c>
-      <c r="G145" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4910,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4936,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>138</v>
-      </c>
-      <c r="G147" t="s">
-        <v>139</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4962,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>55</v>
-      </c>
-      <c r="G148" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4988,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5014,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>55</v>
-      </c>
-      <c r="G150" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5040,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5066,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>55</v>
-      </c>
-      <c r="G152" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5092,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5118,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>55</v>
-      </c>
-      <c r="G154" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5144,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5170,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>55</v>
-      </c>
-      <c r="G156" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5196,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
         <v>168</v>
-      </c>
-      <c r="H157" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5222,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>55</v>
-      </c>
-      <c r="G158" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5248,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5274,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>55</v>
-      </c>
-      <c r="G160" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5300,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5326,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>55</v>
-      </c>
-      <c r="G162" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5352,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5378,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>55</v>
-      </c>
-      <c r="G164" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5404,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5430,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>55</v>
-      </c>
-      <c r="G166" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5456,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>17</v>
-      </c>
-      <c r="G167" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5482,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>55</v>
-      </c>
-      <c r="G168" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5508,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5534,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>55</v>
-      </c>
-      <c r="G170" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5560,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5586,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>55</v>
-      </c>
-      <c r="G172" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5612,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5638,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>55</v>
-      </c>
-      <c r="G174" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5664,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5690,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>55</v>
-      </c>
-      <c r="G176" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5716,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5742,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>55</v>
-      </c>
-      <c r="G178" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5768,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>105</v>
-      </c>
-      <c r="G179" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5794,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5820,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>105</v>
-      </c>
-      <c r="G181" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5846,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-      <c r="G182" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5872,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>105</v>
-      </c>
-      <c r="G183" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5898,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
-      </c>
-      <c r="G184" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5924,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>105</v>
-      </c>
-      <c r="G185" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5950,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5976,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>105</v>
-      </c>
-      <c r="G187" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6002,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6028,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>105</v>
-      </c>
-      <c r="G189" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6054,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>17</v>
-      </c>
-      <c r="G190" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6080,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>105</v>
-      </c>
-      <c r="G191" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6106,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6132,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>105</v>
-      </c>
-      <c r="G193" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6158,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
-      </c>
-      <c r="G194" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6184,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>105</v>
-      </c>
-      <c r="G195" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6210,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
-      </c>
-      <c r="G196" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6236,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>105</v>
-      </c>
-      <c r="G197" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6262,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>55</v>
-      </c>
-      <c r="G198" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6288,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
-      </c>
-      <c r="G199" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6314,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>55</v>
-      </c>
-      <c r="G200" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6340,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>17</v>
-      </c>
-      <c r="G201" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6366,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>55</v>
-      </c>
-      <c r="G202" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6392,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>17</v>
-      </c>
-      <c r="G203" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6418,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>55</v>
-      </c>
-      <c r="G204" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6444,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>17</v>
-      </c>
-      <c r="G205" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6470,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>55</v>
-      </c>
-      <c r="G206" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6496,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>17</v>
-      </c>
-      <c r="G207" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6522,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>55</v>
-      </c>
-      <c r="G208" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6548,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6574,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>55</v>
-      </c>
-      <c r="G210" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6600,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>17</v>
-      </c>
-      <c r="G211" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6626,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>55</v>
-      </c>
-      <c r="G212" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6652,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>17</v>
-      </c>
-      <c r="G213" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6678,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>55</v>
-      </c>
-      <c r="G214" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6704,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
-      </c>
-      <c r="G215" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6730,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>55</v>
-      </c>
-      <c r="G216" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6756,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>17</v>
-      </c>
-      <c r="G217" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6782,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>55</v>
-      </c>
-      <c r="G218" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6808,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>17</v>
-      </c>
-      <c r="G219" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6834,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>55</v>
-      </c>
-      <c r="G220" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6860,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>17</v>
-      </c>
-      <c r="G221" t="s">
-        <v>168</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6886,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>55</v>
-      </c>
-      <c r="G222" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6912,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>105</v>
-      </c>
-      <c r="G223" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6938,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>17</v>
-      </c>
-      <c r="G224" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6964,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>105</v>
-      </c>
-      <c r="G225" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6990,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>17</v>
-      </c>
-      <c r="G226" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7016,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>105</v>
-      </c>
-      <c r="G227" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7042,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>17</v>
-      </c>
-      <c r="G228" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7068,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>105</v>
-      </c>
-      <c r="G229" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7094,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>17</v>
-      </c>
-      <c r="G230" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7120,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>105</v>
-      </c>
-      <c r="G231" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7146,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>17</v>
-      </c>
-      <c r="G232" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7172,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>105</v>
-      </c>
-      <c r="G233" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7198,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>17</v>
-      </c>
-      <c r="G234" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7224,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>105</v>
-      </c>
-      <c r="G235" t="s">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7250,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>55</v>
-      </c>
-      <c r="G236" t="s">
-        <v>56</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20546.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20546.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Gohmert</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gohmert. The Subcommittee on Oversight and Investigations will come to order.    The subcommittee is meeting today to hear testimony on the Administration's response to findings of unethical and criminal conduct at the Department of the Interior.    Under Committee Rule 4(f), any oral opening statements at the hearings are limited to the Chairman and the Ranking Minority Member. Therefore, I ask unanimous consent that all other Members' opening statements made be made part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today.    Hearing no objection, so ordered.    We were notified that Ranking Member Dingell would not be able to be here. You may be aware we had an interesting evening and finished votes, I think, sometime after 3:00 a.m.    I will also say that it is a pleasure to work with Congresswoman Debbie Dingell. She is, I have found, one of the more honorable, decent people of integrity like her husband, and it is a pleasure to work with her. I think a great deal of her and I am proud to consider her a friend.    Now, I recognize myself for 5 minutes for an opening statement.</t>
   </si>
   <si>
@@ -67,6 +76,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Kendall</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kendall. Thank you, Mr. Chairman.    Good morning, members of the committee. Thank you for the opportunity to testify today regarding the work of the Office of the Inspector General.    This hearing highlights the importance of bringing into the public view the role of the OIG as an independent, objective body to investigate matters that ultimately violate the public trust.    I must emphasize the dedication and hard work of OIG staff and give credit to those who produce the results that are the subject of today's hearing.    These recent hearings have also reinforced our focus on analyzing patterns of misconduct, examples of retaliation or intimidation, and systemic failures in management and internal oversight of critical processes within the Department, such as human resources, and contract and grant management.    With fewer than 80 investigators, we work with constrained resources to address the ever-increasing complaints and allegations we receive throughout the year from multiple sources. With limited time and resources, we tend to move from case to case without considering cross-cutting impacts or patterns that our investigations uncover.    Recently, however, we have begun to look for investigative trends that may eliminate more systemic issues within the Department and its bureaus. The OIG has established a reputation for fair and thorough investigative and audit work. While we produce a significant volume of both investigative and audit work, in light of our work size we are not always able to transmit and make public our work products as quickly as I would like.    Our effort at transparency, something that I believe is unparalleled in the OIG community, has its own challenges. In preparing public versions of these investigative and audit results, we must address grand jury secrecy rules, privacy issues, confidential business and proprietary information protections, and protection of confidential sources. This effort can be quite time consuming, but I believe that the benefit of the resulting transparency is well worth the effort.    By reducing the time we provide to the Department for consideration from 90 to no more than 30 days before publishing investigative reports or summaries on our Web site, we provide all of our stakeholders with clear expectations about the public availability of our reports.    Much of our investigative work includes working with Assistant U.S. Attorneys (AUSAs) and other officials in the Department of Justice. We have strong working relationships with many U.S. Attorney's Offices, which has resulted in the prosecution of cases throughout the country.    A couple of examples of these effective working relationships with DOJ are our considerable involvement with the Deepwater Horizon Task Force, both criminal and civil, which were led by DOJ and resulted in record-setting fines and penalties.    We also had great success in the Guardians Task Force, which was led by the U.S. Attorney's Office for the District of Montana, to address public corruption involving tribal leaders. This model has become a standard for task forces in Indian Country.    We consult with DOJ on all allegations that involve potential criminal violations. A considerable number of these cases do not get prosecuted for any number of appropriate reasons.    Other times, a matter may be accepted for consideration for prosecution, but gets delayed due to higher priority cases or other resource limitations. The process of prosecutorial consideration is very deliberate, very detailed, and at times, completely out of our hands.    I reiterate my thanks to the subcommittee for holding this hearing today, for giving these issues the attention they deserve, and for recognizing the need for transparency and accountability in this important area.    This concludes my prepared testimony, and I am happy to answer any questions committee may have.</t>
   </si>
   <si>
@@ -169,12 +181,24 @@
     <t>412623</t>
   </si>
   <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hice. Thank you very much, Mr. Chairman. I appreciate you calling this hearing.    This is now actually the third hearing on this issue that I have participated in, and after the two previous hearings, quite frankly, I have been shocked at the culture of corruption and misconduct that has been allowed to persist at the National Park Service.    In fact, last Wednesday, Director Jarvis was at the Oversight and Government Reform Committee to answer some questions pertaining to allegations of sexual harassment, unethical behavior, misconduct, and on and on and on; and, unfortunately, for the members of that committee and for the citizens of the United States of America, Director Jarvis was not able to answer the questions, not even the simplest questions.    And, Mr. Chairman, that is why this past Thursday, I actually sent a letter to President Obama, where I asked him to have Director Jarvis resign from his position, and I fully stand by that letter today.    In fact, I would ask unanimous consent to include a copy of the letter in the record.</t>
   </si>
   <si>
     <t>412674</t>
   </si>
   <si>
+    <t>LaHood</t>
+  </si>
+  <si>
+    <t>Darin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaHood [presiding]. Without objection.</t>
   </si>
   <si>
@@ -223,6 +247,12 @@
     <t>400029</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you.    I apologize for coming in late. I will make up for it by leaving right after I am done.    Ms. Kendall, I appreciate you being here. You publicly, I believe, released a report yesterday.</t>
   </si>
   <si>
@@ -244,6 +274,9 @@
     <t xml:space="preserve">    Mr. Bishop. OK. Three, four, five, ten?</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Thompson. I would say two or three, perhaps.</t>
   </si>
   <si>
@@ -316,6 +349,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman.    I also would like to extend my thanks to the witnesses for being here this morning.    Ms. Kendall, as I listen to the testimony and the questions, it reminds me how important it is to have transparency in our government and how important your job is as an Inspector General in shining light on some of these issues. It appears that you have quite a bit of job security with the way some of these agencies have been operating.    My specific questions have to do with the OIG's investigation of the Henderson, Nevada land sale. That is the OIG's investigation into Bob Abbey, the former Director of the Bureau of Land Management.    Who requested that the OIG investigate Mr. Abbey?</t>
   </si>
   <si>
@@ -412,6 +451,12 @@
     <t>412662</t>
   </si>
   <si>
+    <t>Mooney</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mooney. Thank you, Mr. Chairman.    Ms. Kendall, I have had a lot of dealings with the Department of the Interior in West Virginia. We are dealing with coal mining and other issues. I work with them and deal with them on a lot of issues. I have a few questions for you.    In your semi-annual report to Congress from March, you mentioned that, of the 29 cases you referred to the Department of Justice for prosecution, 17 were declined. Is that correct?</t>
   </si>
   <si>
@@ -494,6 +539,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaHood. Thank you.    I will yield myself 5 minutes at this time.    I want to thank the witnesses for being here today and for your testimony.    Mr. Guertin, I know in your opening statement you talked about the facts and circumstances involving Mr. Barton, which are, I think by your own adjectives, very, very troubling.    And Mr. Barton, as I understand it, his title was Chief of Administrative Information and Management; and clearly he found a creative way to enrich himself illegally, but I guess the part that is really revealing is that he did it out in the open.    As I understand it, Mr. Barton was stationed in Washington, DC; is that correct?</t>
+  </si>
+  <si>
+    <t>Guertin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Guertin. Yes, sir.</t>
@@ -1091,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H236"/>
+  <dimension ref="A1:I236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,7 +1147,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,5645 +1169,6609 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
       <c r="H43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G53" t="s">
+        <v>55</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G55" t="s">
+        <v>77</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s">
+        <v>77</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G63" t="s">
+        <v>77</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G65" t="s">
+        <v>77</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G69" t="s">
+        <v>77</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G71" t="s">
+        <v>77</v>
+      </c>
       <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G73" t="s">
+        <v>77</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G75" t="s">
+        <v>77</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>68</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G77" t="s">
+        <v>77</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>68</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G79" t="s">
+        <v>77</v>
+      </c>
       <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G81" t="s">
+        <v>77</v>
+      </c>
       <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>68</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G83" t="s">
+        <v>77</v>
+      </c>
       <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>68</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="G85" t="s">
+        <v>77</v>
+      </c>
       <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G86" t="s">
+        <v>59</v>
+      </c>
       <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I86" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G87" t="s">
+        <v>111</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>99</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G89" t="s">
+        <v>111</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G91" t="s">
+        <v>111</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G93" t="s">
+        <v>111</v>
+      </c>
       <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>99</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G95" t="s">
+        <v>111</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>99</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G97" t="s">
+        <v>111</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>99</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G99" t="s">
+        <v>111</v>
+      </c>
       <c r="H99" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>99</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G101" t="s">
+        <v>111</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>99</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G103" t="s">
+        <v>111</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>99</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G105" t="s">
+        <v>111</v>
+      </c>
       <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>99</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G107" t="s">
+        <v>111</v>
+      </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>99</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G109" t="s">
+        <v>111</v>
+      </c>
       <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I109" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>99</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G111" t="s">
+        <v>111</v>
+      </c>
       <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I111" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>99</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G113" t="s">
+        <v>111</v>
+      </c>
       <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I113" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>99</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G115" t="s">
+        <v>111</v>
+      </c>
       <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>52</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G116" t="s">
+        <v>59</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>99</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G117" t="s">
+        <v>111</v>
+      </c>
       <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>52</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G118" t="s">
+        <v>59</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>131</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G119" t="s">
+        <v>145</v>
+      </c>
       <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s">
+        <v>20</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G121" t="s">
+        <v>145</v>
+      </c>
       <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s">
+        <v>20</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G123" t="s">
+        <v>145</v>
+      </c>
       <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>131</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G125" t="s">
+        <v>145</v>
+      </c>
       <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>131</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G127" t="s">
+        <v>145</v>
+      </c>
       <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>131</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G129" t="s">
+        <v>145</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
+        <v>20</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>131</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G131" t="s">
+        <v>145</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I131" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>20</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>131</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G133" t="s">
+        <v>145</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>131</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G135" t="s">
+        <v>145</v>
+      </c>
       <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I135" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G136" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>131</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G137" t="s">
+        <v>145</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s">
+        <v>20</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>131</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G139" t="s">
+        <v>145</v>
+      </c>
       <c r="H139" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>131</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G141" t="s">
+        <v>145</v>
+      </c>
       <c r="H141" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G142" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>131</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G143" t="s">
+        <v>145</v>
+      </c>
       <c r="H143" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>131</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G145" t="s">
+        <v>145</v>
+      </c>
       <c r="H145" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>131</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G147" t="s">
+        <v>145</v>
+      </c>
       <c r="H147" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>52</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G148" t="s">
+        <v>59</v>
+      </c>
       <c r="H148" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>175</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>52</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G150" t="s">
+        <v>59</v>
+      </c>
       <c r="H150" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I150" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>175</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>52</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G152" t="s">
+        <v>59</v>
+      </c>
       <c r="H152" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I152" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>175</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>52</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G154" t="s">
+        <v>59</v>
+      </c>
       <c r="H154" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I154" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s">
+        <v>175</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>52</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G156" t="s">
+        <v>59</v>
+      </c>
       <c r="H156" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I156" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s">
+        <v>175</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>52</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G158" t="s">
+        <v>59</v>
+      </c>
       <c r="H158" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s">
+        <v>175</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>52</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G160" t="s">
+        <v>59</v>
+      </c>
       <c r="H160" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s">
+        <v>175</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>52</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G162" t="s">
+        <v>59</v>
+      </c>
       <c r="H162" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I162" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>175</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>52</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G164" t="s">
+        <v>59</v>
+      </c>
       <c r="H164" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>175</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>52</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G166" t="s">
+        <v>59</v>
+      </c>
       <c r="H166" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I166" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>175</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>52</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G168" t="s">
+        <v>59</v>
+      </c>
       <c r="H168" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>20</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>52</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G170" t="s">
+        <v>59</v>
+      </c>
       <c r="H170" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I170" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>52</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G172" t="s">
+        <v>59</v>
+      </c>
       <c r="H172" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I172" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s">
+        <v>175</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>52</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G174" t="s">
+        <v>59</v>
+      </c>
       <c r="H174" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I174" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s">
+        <v>20</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>52</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G176" t="s">
+        <v>59</v>
+      </c>
       <c r="H176" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I176" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>52</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G178" t="s">
+        <v>59</v>
+      </c>
       <c r="H178" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I178" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>99</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G179" t="s">
+        <v>111</v>
+      </c>
       <c r="H179" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I179" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
+        <v>20</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>99</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G181" t="s">
+        <v>111</v>
+      </c>
       <c r="H181" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I181" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>20</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>99</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G183" t="s">
+        <v>111</v>
+      </c>
       <c r="H183" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I183" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>20</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>99</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G185" t="s">
+        <v>111</v>
+      </c>
       <c r="H185" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I185" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>20</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>99</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G187" t="s">
+        <v>111</v>
+      </c>
       <c r="H187" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I187" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>20</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>99</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G189" t="s">
+        <v>111</v>
+      </c>
       <c r="H189" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I189" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>20</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>99</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G191" t="s">
+        <v>111</v>
+      </c>
       <c r="H191" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I191" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G192" t="s">
+        <v>20</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>99</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G193" t="s">
+        <v>111</v>
+      </c>
       <c r="H193" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I193" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G194" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>99</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G195" t="s">
+        <v>111</v>
+      </c>
       <c r="H195" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I195" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G196" t="s">
+        <v>20</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>99</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G197" t="s">
+        <v>111</v>
+      </c>
       <c r="H197" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I197" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>52</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G198" t="s">
+        <v>59</v>
+      </c>
       <c r="H198" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I198" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" t="s"/>
-      <c r="H199" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G199" t="s">
+        <v>20</v>
+      </c>
+      <c r="H199" t="s"/>
+      <c r="I199" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>52</v>
-      </c>
-      <c r="G200" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G200" t="s">
+        <v>59</v>
+      </c>
       <c r="H200" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I200" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" t="s"/>
-      <c r="H201" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G201" t="s">
+        <v>20</v>
+      </c>
+      <c r="H201" t="s"/>
+      <c r="I201" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>52</v>
-      </c>
-      <c r="G202" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G202" t="s">
+        <v>59</v>
+      </c>
       <c r="H202" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I202" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
-      </c>
-      <c r="G203" t="s"/>
-      <c r="H203" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G203" t="s">
+        <v>20</v>
+      </c>
+      <c r="H203" t="s"/>
+      <c r="I203" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>52</v>
-      </c>
-      <c r="G204" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G204" t="s">
+        <v>59</v>
+      </c>
       <c r="H204" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I204" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
-      </c>
-      <c r="G205" t="s"/>
-      <c r="H205" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G205" t="s">
+        <v>175</v>
+      </c>
+      <c r="H205" t="s"/>
+      <c r="I205" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>52</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G206" t="s">
+        <v>59</v>
+      </c>
       <c r="H206" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I206" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
-      </c>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G207" t="s">
+        <v>175</v>
+      </c>
+      <c r="H207" t="s"/>
+      <c r="I207" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>52</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G208" t="s">
+        <v>59</v>
+      </c>
       <c r="H208" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I208" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
-      </c>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G209" t="s">
+        <v>175</v>
+      </c>
+      <c r="H209" t="s"/>
+      <c r="I209" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>52</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G210" t="s">
+        <v>59</v>
+      </c>
       <c r="H210" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I210" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>16</v>
-      </c>
-      <c r="G211" t="s"/>
-      <c r="H211" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G211" t="s">
+        <v>175</v>
+      </c>
+      <c r="H211" t="s"/>
+      <c r="I211" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>52</v>
-      </c>
-      <c r="G212" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G212" t="s">
+        <v>59</v>
+      </c>
       <c r="H212" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I212" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
-      </c>
-      <c r="G213" t="s"/>
-      <c r="H213" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G213" t="s">
+        <v>175</v>
+      </c>
+      <c r="H213" t="s"/>
+      <c r="I213" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>52</v>
-      </c>
-      <c r="G214" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G214" t="s">
+        <v>59</v>
+      </c>
       <c r="H214" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I214" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>16</v>
-      </c>
-      <c r="G215" t="s"/>
-      <c r="H215" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G215" t="s">
+        <v>175</v>
+      </c>
+      <c r="H215" t="s"/>
+      <c r="I215" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>52</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G216" t="s">
+        <v>59</v>
+      </c>
       <c r="H216" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I216" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>16</v>
-      </c>
-      <c r="G217" t="s"/>
-      <c r="H217" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G217" t="s">
+        <v>175</v>
+      </c>
+      <c r="H217" t="s"/>
+      <c r="I217" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>52</v>
-      </c>
-      <c r="G218" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G218" t="s">
+        <v>59</v>
+      </c>
       <c r="H218" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I218" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>16</v>
-      </c>
-      <c r="G219" t="s"/>
-      <c r="H219" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G219" t="s">
+        <v>175</v>
+      </c>
+      <c r="H219" t="s"/>
+      <c r="I219" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>52</v>
-      </c>
-      <c r="G220" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G220" t="s">
+        <v>59</v>
+      </c>
       <c r="H220" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I220" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>16</v>
-      </c>
-      <c r="G221" t="s"/>
-      <c r="H221" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G221" t="s">
+        <v>175</v>
+      </c>
+      <c r="H221" t="s"/>
+      <c r="I221" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>52</v>
-      </c>
-      <c r="G222" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G222" t="s">
+        <v>59</v>
+      </c>
       <c r="H222" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I222" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>99</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G223" t="s">
+        <v>111</v>
+      </c>
       <c r="H223" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I223" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>16</v>
-      </c>
-      <c r="G224" t="s"/>
-      <c r="H224" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G224" t="s">
+        <v>20</v>
+      </c>
+      <c r="H224" t="s"/>
+      <c r="I224" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G225" t="s">
+        <v>111</v>
+      </c>
       <c r="H225" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I225" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>16</v>
-      </c>
-      <c r="G226" t="s"/>
-      <c r="H226" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G226" t="s">
+        <v>20</v>
+      </c>
+      <c r="H226" t="s"/>
+      <c r="I226" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>99</v>
-      </c>
-      <c r="G227" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G227" t="s">
+        <v>111</v>
+      </c>
       <c r="H227" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I227" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>16</v>
-      </c>
-      <c r="G228" t="s"/>
-      <c r="H228" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G228" t="s">
+        <v>20</v>
+      </c>
+      <c r="H228" t="s"/>
+      <c r="I228" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>99</v>
-      </c>
-      <c r="G229" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G229" t="s">
+        <v>111</v>
+      </c>
       <c r="H229" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I229" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>16</v>
-      </c>
-      <c r="G230" t="s"/>
-      <c r="H230" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G230" t="s">
+        <v>20</v>
+      </c>
+      <c r="H230" t="s"/>
+      <c r="I230" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>99</v>
-      </c>
-      <c r="G231" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G231" t="s">
+        <v>111</v>
+      </c>
       <c r="H231" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I231" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>16</v>
-      </c>
-      <c r="G232" t="s"/>
-      <c r="H232" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G232" t="s">
+        <v>20</v>
+      </c>
+      <c r="H232" t="s"/>
+      <c r="I232" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F233" t="s">
-        <v>99</v>
-      </c>
-      <c r="G233" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G233" t="s">
+        <v>111</v>
+      </c>
       <c r="H233" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I233" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>16</v>
-      </c>
-      <c r="G234" t="s"/>
-      <c r="H234" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="G234" t="s">
+        <v>20</v>
+      </c>
+      <c r="H234" t="s"/>
+      <c r="I234" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F235" t="s">
-        <v>99</v>
-      </c>
-      <c r="G235" t="s"/>
+        <v>110</v>
+      </c>
+      <c r="G235" t="s">
+        <v>111</v>
+      </c>
       <c r="H235" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>112</v>
+      </c>
+      <c r="I235" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F236" t="s">
-        <v>52</v>
-      </c>
-      <c r="G236" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G236" t="s">
+        <v>59</v>
+      </c>
       <c r="H236" t="s">
-        <v>242</v>
+        <v>60</v>
+      </c>
+      <c r="I236" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
